--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/HCSUITE/3.19.23/HCSUITE accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/HCSUITE/3.19.23/HCSUITE accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\HCSUITE\3.19.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18E7CC-446D-4C03-A01E-DB1CFBA48BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEE23F4-2CDF-4520-A9CC-37D913866CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2139,15 +2139,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-02-23T11:28:09.865Z</t>
-  </si>
-  <si>
-    <t>55cd66157287d33b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7c66ae347098ac8ed5bdd8293efdc771675ffdc55f7fafeafb28aa64dfe84e77.5381dc9c7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce il codice identificativo del medico che autorizza la dimissione. Per il caso di test è stata forzata la mancata valorizzazione.</t>
   </si>
   <si>
@@ -5168,6 +5159,15 @@
   </si>
   <si>
     <t>L'applicativo gestisce le informazioni codificate delle terapie farmacologiche alla dimissione. Per il caso di test è stata forzata la mancata valorizzazione della codifica del farmaco.</t>
+  </si>
+  <si>
+    <t>2024-03-29T11:41:29.870Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7c66ae347098ac8ed5bdd8293efdc771675ffdc55f7fafeafb28aa64dfe84e77.75169f935c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b9c24501eee3b8c1</t>
   </si>
 </sst>
 </file>
@@ -8237,10 +8237,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15:J381"/>
+      <selection pane="bottomRight" activeCell="H401" sqref="H401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10777,7 +10777,7 @@
         <v>71</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L70" s="33"/>
       <c r="M70" s="34"/>
@@ -10815,7 +10815,7 @@
         <v>71</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -11223,13 +11223,13 @@
         <v>45378</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>67</v>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="R79" s="26"/>
       <c r="S79" s="27" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="T79" s="28" t="s">
         <v>123</v>
@@ -11335,13 +11335,13 @@
         <v>45378</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="J81" s="25" t="s">
         <v>67</v>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="R81" s="26"/>
       <c r="S81" s="61" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="T81" s="28" t="s">
         <v>123</v>
@@ -12993,7 +12993,7 @@
         <v>71</v>
       </c>
       <c r="K129" s="25" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L129" s="33"/>
       <c r="M129" s="34"/>
@@ -13031,7 +13031,7 @@
         <v>71</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
@@ -13342,16 +13342,16 @@
         <v>385</v>
       </c>
       <c r="F136" s="23">
-        <v>45345</v>
+        <v>45351</v>
       </c>
       <c r="G136" s="29" t="s">
-        <v>386</v>
+        <v>1035</v>
       </c>
       <c r="H136" s="29" t="s">
-        <v>387</v>
+        <v>1037</v>
       </c>
       <c r="I136" s="29" t="s">
-        <v>388</v>
+        <v>1036</v>
       </c>
       <c r="J136" s="25" t="s">
         <v>67</v>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="R136" s="48"/>
       <c r="S136" s="49" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T136" s="28" t="s">
         <v>123</v>
@@ -13392,22 +13392,22 @@
         <v>106</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F137" s="23">
         <v>45345</v>
       </c>
       <c r="G137" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H137" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I137" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J137" s="25" t="s">
         <v>67</v>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="R137" s="36"/>
       <c r="S137" s="40" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="T137" s="28" t="s">
         <v>123</v>
@@ -13448,22 +13448,22 @@
         <v>106</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F138" s="23">
         <v>45345</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I138" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J138" s="25" t="s">
         <v>67</v>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="R138" s="48"/>
       <c r="S138" s="49" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="T138" s="28" t="s">
         <v>123</v>
@@ -13504,22 +13504,22 @@
         <v>106</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F139" s="50">
         <v>45345</v>
       </c>
       <c r="G139" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I139" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J139" s="25" t="s">
         <v>67</v>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="R139" s="48"/>
       <c r="S139" s="49" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="T139" s="28" t="s">
         <v>123</v>
@@ -13560,22 +13560,22 @@
         <v>106</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F140" s="23">
         <v>45345</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I140" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J140" s="25" t="s">
         <v>67</v>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="R140" s="48"/>
       <c r="S140" s="49" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="T140" s="28" t="s">
         <v>123</v>
@@ -13616,10 +13616,10 @@
         <v>106</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -13629,7 +13629,7 @@
         <v>71</v>
       </c>
       <c r="K141" s="33" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
@@ -13654,10 +13654,10 @@
         <v>106</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -13667,7 +13667,7 @@
         <v>71</v>
       </c>
       <c r="K142" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L142" s="25"/>
       <c r="M142" s="25"/>
@@ -13692,10 +13692,10 @@
         <v>106</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -13705,7 +13705,7 @@
         <v>71</v>
       </c>
       <c r="K143" s="32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L143" s="25"/>
       <c r="M143" s="25"/>
@@ -13730,22 +13730,22 @@
         <v>106</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F144" s="23">
         <v>45378</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I144" s="29" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J144" s="25" t="s">
         <v>67</v>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="R144" s="36"/>
       <c r="S144" s="34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="T144" s="28" t="s">
         <v>123</v>
@@ -13786,10 +13786,10 @@
         <v>106</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -13799,7 +13799,7 @@
         <v>71</v>
       </c>
       <c r="K145" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
@@ -13824,22 +13824,22 @@
         <v>106</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F146" s="23">
         <v>45345</v>
       </c>
       <c r="G146" s="29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H146" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I146" s="29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J146" s="25" t="s">
         <v>67</v>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="R146" s="36"/>
       <c r="S146" s="40" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="T146" s="28" t="s">
         <v>123</v>
@@ -13880,22 +13880,22 @@
         <v>106</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F147" s="23">
         <v>45378</v>
       </c>
       <c r="G147" s="29" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H147" s="29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I147" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J147" s="25" t="s">
         <v>67</v>
@@ -13919,7 +13919,7 @@
       </c>
       <c r="R147" s="48"/>
       <c r="S147" s="49" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="T147" s="28" t="s">
         <v>123</v>
@@ -13936,10 +13936,10 @@
         <v>106</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -13949,7 +13949,7 @@
         <v>71</v>
       </c>
       <c r="K148" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
@@ -13974,22 +13974,22 @@
         <v>106</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F149" s="23">
         <v>45345</v>
       </c>
       <c r="G149" s="29" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H149" s="29" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I149" s="29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J149" s="25" t="s">
         <v>67</v>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="R149" s="54"/>
       <c r="S149" s="55" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="T149" s="28" t="s">
         <v>123</v>
@@ -14030,22 +14030,22 @@
         <v>106</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F150" s="23">
         <v>45345</v>
       </c>
       <c r="G150" s="29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H150" s="29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I150" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J150" s="25" t="s">
         <v>67</v>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="R150" s="48"/>
       <c r="S150" s="49" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="T150" s="28" t="s">
         <v>123</v>
@@ -14086,22 +14086,22 @@
         <v>106</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F151" s="23">
         <v>45345</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H151" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I151" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J151" s="25" t="s">
         <v>67</v>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="R151" s="48"/>
       <c r="S151" s="49" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="T151" s="28" t="s">
         <v>123</v>
@@ -14142,10 +14142,10 @@
         <v>106</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -14155,7 +14155,7 @@
         <v>71</v>
       </c>
       <c r="K152" s="33" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
@@ -14180,10 +14180,10 @@
         <v>106</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -14193,7 +14193,7 @@
         <v>71</v>
       </c>
       <c r="K153" s="56" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
@@ -14218,10 +14218,10 @@
         <v>136</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
@@ -14231,7 +14231,7 @@
         <v>71</v>
       </c>
       <c r="K154" s="33" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -14256,10 +14256,10 @@
         <v>136</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
@@ -14269,7 +14269,7 @@
         <v>71</v>
       </c>
       <c r="K155" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -14294,10 +14294,10 @@
         <v>136</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
@@ -14307,7 +14307,7 @@
         <v>71</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -14332,10 +14332,10 @@
         <v>136</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
@@ -14345,7 +14345,7 @@
         <v>71</v>
       </c>
       <c r="K157" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -14370,10 +14370,10 @@
         <v>136</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
@@ -14383,7 +14383,7 @@
         <v>71</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L158" s="33"/>
       <c r="M158" s="34"/>
@@ -14408,10 +14408,10 @@
         <v>136</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
@@ -14421,7 +14421,7 @@
         <v>71</v>
       </c>
       <c r="K159" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -14446,22 +14446,22 @@
         <v>136</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F160" s="23">
         <v>45378</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I160" s="29" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>67</v>
@@ -14502,22 +14502,22 @@
         <v>136</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F161" s="23">
         <v>45377</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H161" s="29" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I161" s="29" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>67</v>
@@ -14558,22 +14558,22 @@
         <v>136</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F162" s="23">
         <v>45377</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>67</v>
@@ -14614,22 +14614,22 @@
         <v>136</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F163" s="23">
         <v>45377</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>67</v>
@@ -14670,10 +14670,10 @@
         <v>136</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
@@ -14683,7 +14683,7 @@
         <v>71</v>
       </c>
       <c r="K164" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -14708,10 +14708,10 @@
         <v>136</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
@@ -14721,7 +14721,7 @@
         <v>71</v>
       </c>
       <c r="K165" s="32" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -14746,10 +14746,10 @@
         <v>136</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
@@ -14759,7 +14759,7 @@
         <v>71</v>
       </c>
       <c r="K166" s="32" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -14784,22 +14784,22 @@
         <v>136</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F167" s="23">
         <v>45377</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>67</v>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="R167" s="36"/>
       <c r="S167" s="40" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="T167" s="28" t="s">
         <v>123</v>
@@ -14840,22 +14840,22 @@
         <v>136</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F168" s="23">
         <v>45377</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>67</v>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="R168" s="48"/>
       <c r="S168" s="49" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T168" s="28" t="s">
         <v>123</v>
@@ -14896,10 +14896,10 @@
         <v>136</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
@@ -14909,7 +14909,7 @@
         <v>71</v>
       </c>
       <c r="K169" s="33" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -14934,10 +14934,10 @@
         <v>136</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
@@ -14947,7 +14947,7 @@
         <v>71</v>
       </c>
       <c r="K170" s="32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -14972,10 +14972,10 @@
         <v>136</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
@@ -14985,7 +14985,7 @@
         <v>71</v>
       </c>
       <c r="K171" s="32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -15010,10 +15010,10 @@
         <v>136</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
@@ -15023,7 +15023,7 @@
         <v>71</v>
       </c>
       <c r="K172" s="32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -15048,10 +15048,10 @@
         <v>136</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
@@ -15061,7 +15061,7 @@
         <v>71</v>
       </c>
       <c r="K173" s="32" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -15086,10 +15086,10 @@
         <v>136</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
@@ -15099,7 +15099,7 @@
         <v>71</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -15124,10 +15124,10 @@
         <v>136</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
@@ -15137,7 +15137,7 @@
         <v>71</v>
       </c>
       <c r="K175" s="32" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -15162,22 +15162,22 @@
         <v>136</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F176" s="23">
         <v>45377</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H176" s="29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>67</v>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="R176" s="36"/>
       <c r="S176" s="40" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="T176" s="28" t="s">
         <v>123</v>
@@ -15218,10 +15218,10 @@
         <v>131</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -15252,10 +15252,10 @@
         <v>131</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -15286,10 +15286,10 @@
         <v>131</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -15320,10 +15320,10 @@
         <v>131</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -15354,10 +15354,10 @@
         <v>131</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -15388,10 +15388,10 @@
         <v>131</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -15422,10 +15422,10 @@
         <v>131</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -15456,10 +15456,10 @@
         <v>131</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -15490,10 +15490,10 @@
         <v>131</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -15524,10 +15524,10 @@
         <v>131</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -15558,10 +15558,10 @@
         <v>131</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -15592,10 +15592,10 @@
         <v>131</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -15626,10 +15626,10 @@
         <v>131</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -15660,10 +15660,10 @@
         <v>131</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -15694,10 +15694,10 @@
         <v>131</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -15728,10 +15728,10 @@
         <v>131</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -15762,10 +15762,10 @@
         <v>131</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -15796,10 +15796,10 @@
         <v>131</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -15830,10 +15830,10 @@
         <v>131</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -15864,10 +15864,10 @@
         <v>131</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -15898,10 +15898,10 @@
         <v>131</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -15932,10 +15932,10 @@
         <v>49</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -15960,16 +15960,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -15994,16 +15994,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -16028,16 +16028,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -16062,16 +16062,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -16096,16 +16096,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -16130,16 +16130,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -16164,16 +16164,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -16198,16 +16198,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -16232,16 +16232,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -16266,16 +16266,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -16300,16 +16300,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -16334,16 +16334,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -16368,16 +16368,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -16402,16 +16402,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -16436,16 +16436,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -16470,16 +16470,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -16504,16 +16504,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -16538,16 +16538,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -16572,16 +16572,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -16606,16 +16606,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -16640,16 +16640,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -16674,16 +16674,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -16708,16 +16708,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -16742,16 +16742,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -16776,16 +16776,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -16810,16 +16810,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -16844,16 +16844,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -16878,16 +16878,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -16912,16 +16912,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -16946,16 +16946,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -16980,16 +16980,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -17014,16 +17014,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -17048,16 +17048,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -17082,16 +17082,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -17116,16 +17116,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -17150,16 +17150,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -17184,16 +17184,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -17218,16 +17218,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -17252,16 +17252,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -17286,16 +17286,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -17320,16 +17320,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -17354,16 +17354,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -17388,16 +17388,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -17422,16 +17422,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -17456,16 +17456,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -17490,16 +17490,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -17524,16 +17524,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -17558,16 +17558,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -17592,16 +17592,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -17626,16 +17626,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -17660,16 +17660,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -17694,16 +17694,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -17728,16 +17728,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -17762,16 +17762,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -17796,16 +17796,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -17830,16 +17830,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -17864,16 +17864,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -17898,16 +17898,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -17932,16 +17932,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -17966,16 +17966,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -18000,16 +18000,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -18034,16 +18034,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -18068,16 +18068,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -18102,16 +18102,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -18136,16 +18136,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -18170,16 +18170,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -18204,16 +18204,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -18238,16 +18238,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -18272,16 +18272,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -18306,16 +18306,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -18340,16 +18340,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -18374,16 +18374,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -18408,16 +18408,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -18442,16 +18442,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -18476,16 +18476,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -18510,16 +18510,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -18544,16 +18544,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -18578,16 +18578,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -18612,16 +18612,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -18646,16 +18646,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -18680,16 +18680,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -18714,16 +18714,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -18748,16 +18748,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -18782,16 +18782,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -18816,16 +18816,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -18850,16 +18850,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -18884,16 +18884,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E285" s="22" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -18918,16 +18918,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E286" s="22" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -18952,16 +18952,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E287" s="22" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -18986,16 +18986,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -19020,16 +19020,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -19054,16 +19054,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -19088,16 +19088,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -19122,16 +19122,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -19156,16 +19156,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -19190,16 +19190,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -19224,16 +19224,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -19258,16 +19258,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -19292,16 +19292,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -19326,16 +19326,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -19360,16 +19360,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E299" s="22" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -19394,16 +19394,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -19428,16 +19428,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E301" s="22" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -19462,16 +19462,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -19496,16 +19496,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -19530,16 +19530,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -19564,16 +19564,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -19598,16 +19598,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -19632,16 +19632,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -19666,16 +19666,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -19700,16 +19700,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -19734,16 +19734,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -19768,16 +19768,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -19802,16 +19802,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -19836,16 +19836,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -19870,16 +19870,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -19904,16 +19904,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -19938,16 +19938,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -19972,16 +19972,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -20006,16 +20006,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -20040,16 +20040,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -20074,16 +20074,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -20108,16 +20108,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -20142,16 +20142,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -20176,16 +20176,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -20210,16 +20210,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -20244,16 +20244,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E325" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -20278,16 +20278,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -20312,16 +20312,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -20346,16 +20346,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -20380,16 +20380,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -20414,16 +20414,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -20448,16 +20448,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -20482,16 +20482,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -20516,16 +20516,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -20550,16 +20550,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -20584,16 +20584,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -20618,16 +20618,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -20652,16 +20652,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -20686,16 +20686,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -20720,16 +20720,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -20754,16 +20754,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -20788,16 +20788,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E341" s="22" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -20822,16 +20822,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -20856,16 +20856,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -20890,16 +20890,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -20924,16 +20924,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -20958,16 +20958,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -20992,16 +20992,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -21026,16 +21026,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -21060,16 +21060,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -21094,16 +21094,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -21128,16 +21128,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -21162,16 +21162,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C352" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -21196,16 +21196,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C353" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -21230,16 +21230,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C354" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -21264,16 +21264,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C355" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -21298,16 +21298,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C356" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -21332,16 +21332,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -21366,16 +21366,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C358" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -21400,16 +21400,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -21434,16 +21434,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -21468,16 +21468,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -21502,16 +21502,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -21536,16 +21536,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -21570,16 +21570,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -21604,16 +21604,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -21638,16 +21638,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -21672,16 +21672,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -21706,16 +21706,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -21740,16 +21740,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -21774,16 +21774,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -21808,16 +21808,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C371" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -21842,16 +21842,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C372" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E372" s="22" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -21876,16 +21876,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C373" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -21910,16 +21910,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C374" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -21950,10 +21950,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E375" s="22" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -21984,22 +21984,22 @@
         <v>61</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E376" s="22" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F376" s="23">
         <v>45363</v>
       </c>
       <c r="G376" s="29" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H376" s="29" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I376" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>67</v>
@@ -22028,10 +22028,10 @@
         <v>79</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E377" s="22" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -22062,10 +22062,10 @@
         <v>88</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -22096,10 +22096,10 @@
         <v>97</v>
       </c>
       <c r="D379" s="21" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E379" s="22" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -22130,22 +22130,22 @@
         <v>106</v>
       </c>
       <c r="D380" s="21" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E380" s="22" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F380" s="23">
         <v>45378</v>
       </c>
       <c r="G380" s="29" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H380" s="29" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I380" s="29" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="J380" s="25" t="s">
         <v>67</v>
@@ -22174,22 +22174,22 @@
         <v>136</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E381" s="22" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F381" s="23">
         <v>45378</v>
       </c>
       <c r="G381" s="29" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H381" s="29" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>67</v>
@@ -22220,10 +22220,10 @@
         <v>131</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -22254,10 +22254,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -27007,10 +27007,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -27018,13 +27018,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -27032,13 +27032,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>979</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>982</v>
-      </c>
       <c r="D3" s="58" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -27046,13 +27046,13 @@
         <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -27060,13 +27060,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -27074,13 +27074,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
@@ -27088,13 +27088,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
@@ -27102,13 +27102,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
@@ -27116,27 +27116,27 @@
         <v>131</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="11" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -27144,13 +27144,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C11" s="58">
         <v>192</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -27158,13 +27158,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C12" s="58">
         <v>208</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -27172,13 +27172,13 @@
         <v>79</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C13" s="58">
         <v>224</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -27186,13 +27186,13 @@
         <v>88</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C14" s="58">
         <v>240</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -27200,13 +27200,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C15" s="58">
         <v>256</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -27214,13 +27214,13 @@
         <v>106</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C16" s="58">
         <v>272</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -27228,13 +27228,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C17" s="58">
         <v>288</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
@@ -27242,13 +27242,13 @@
         <v>131</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C18" s="58">
         <v>304</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -27256,13 +27256,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C19" s="58">
         <v>193</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -27270,13 +27270,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C20" s="58">
         <v>209</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -27284,13 +27284,13 @@
         <v>79</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C21" s="58">
         <v>225</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -27298,13 +27298,13 @@
         <v>88</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C22" s="58">
         <v>241</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
@@ -27312,13 +27312,13 @@
         <v>97</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C23" s="58">
         <v>257</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -27326,13 +27326,13 @@
         <v>106</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C24" s="58">
         <v>273</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -27340,13 +27340,13 @@
         <v>136</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C25" s="58">
         <v>289</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
@@ -27354,13 +27354,13 @@
         <v>131</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C26" s="58">
         <v>305</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
@@ -27368,13 +27368,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C27" s="58">
         <v>194</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -27382,13 +27382,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C28" s="58">
         <v>210</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -27396,13 +27396,13 @@
         <v>79</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C29" s="58">
         <v>226</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -27410,13 +27410,13 @@
         <v>88</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C30" s="58">
         <v>242</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
@@ -27424,13 +27424,13 @@
         <v>97</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C31" s="58">
         <v>258</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -27438,13 +27438,13 @@
         <v>106</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C32" s="58">
         <v>274</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
@@ -27452,13 +27452,13 @@
         <v>136</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C33" s="58">
         <v>290</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
@@ -27466,13 +27466,13 @@
         <v>131</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C34" s="58">
         <v>306</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -27480,7 +27480,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C35" s="58">
         <v>195</v>
@@ -27494,7 +27494,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C36" s="58">
         <v>211</v>
@@ -27508,7 +27508,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C37" s="58">
         <v>227</v>
@@ -27522,7 +27522,7 @@
         <v>88</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C38" s="58">
         <v>243</v>
@@ -27536,7 +27536,7 @@
         <v>97</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C39" s="58">
         <v>259</v>
@@ -27550,7 +27550,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C40" s="58">
         <v>275</v>
@@ -27564,7 +27564,7 @@
         <v>136</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C41" s="58">
         <v>291</v>
@@ -27578,7 +27578,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C42" s="58">
         <v>307</v>
@@ -27592,7 +27592,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C43" s="58">
         <v>196</v>
@@ -27606,7 +27606,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C44" s="58">
         <v>212</v>
@@ -27620,7 +27620,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C45" s="58">
         <v>228</v>
@@ -27634,7 +27634,7 @@
         <v>88</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C46" s="58">
         <v>244</v>
@@ -27648,7 +27648,7 @@
         <v>97</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C47" s="58">
         <v>260</v>
@@ -27662,7 +27662,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C48" s="58">
         <v>276</v>
@@ -27676,7 +27676,7 @@
         <v>136</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C49" s="58">
         <v>292</v>
@@ -27690,7 +27690,7 @@
         <v>131</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C50" s="58">
         <v>308</v>
@@ -28686,7 +28686,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>71</v>
